--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_9_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1747287.314891372</v>
+        <v>1663233.074877991</v>
       </c>
     </row>
     <row r="7">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="D11" t="n">
-        <v>70.8738451109852</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>93.60438629487273</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>93.60438629487273</v>
+        <v>70.8738451109855</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.60438629487273</v>
+        <v>93.60438629487254</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>82.44674344852389</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>93.60438629487273</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="V12" t="n">
-        <v>93.60438629487273</v>
+        <v>82.44674344852372</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>93.60438629487273</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>70.87384511098534</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>93.6043862948725</v>
+        <v>70.87384511098549</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487255</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>16.59978055020764</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>65.84696289831604</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>82.44674344852368</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50.80090239271154</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.80090239271154</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="W17" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>99.45025176383011</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>99.45025176383012</v>
       </c>
     </row>
     <row r="19">
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>102.1048307320928</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>50.80090239271154</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>61.60507684207886</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2204,28 +2204,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.95974237259708</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>112.9090051814602</v>
+        <v>99.45025176383012</v>
       </c>
       <c r="U21" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>61.49050939123301</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>61.60507684207886</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>92.51761156103419</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="S23" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>31.8135271562948</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.95974237259708</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="V24" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>107.7299092261976</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>69.77016685360037</v>
+        <v>122.3091612468183</v>
       </c>
     </row>
     <row r="25">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2599,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>61.60507684207886</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="S26" t="n">
-        <v>92.51761156103419</v>
+        <v>31.8135271562948</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="U26" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2678,31 +2678,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.95974237259708</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="S27" t="n">
-        <v>69.77016685360037</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>122.3091612468182</v>
+        <v>41.88294632788156</v>
       </c>
     </row>
     <row r="28">
@@ -2836,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>61.60507684207886</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>92.51761156103419</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="V29" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>31.81352715629479</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>107.7299092261976</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="V30" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="X30" t="n">
-        <v>107.7299092261975</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
     </row>
     <row r="31">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>92.51761156103417</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>61.60507684207886</v>
+        <v>31.8135271562948</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
     </row>
     <row r="33">
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>69.77016685360051</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="G33" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3152,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>69.77016685360037</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="X33" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>50.80090239271152</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>50.80090239271154</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>99.45025176383012</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>99.45025176383011</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="D38" t="n">
-        <v>50.80090239271152</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>112.9090051814602</v>
+        <v>50.80090239271154</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="V38" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="U39" t="n">
-        <v>112.9090051814602</v>
+        <v>99.45025176383012</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>99.45025176383012</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>70.8738451109855</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>70.87384511098537</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="X41" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>82.44674344852372</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>82.44674344852366</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
     </row>
     <row r="43">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>70.8738451109855</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>70.87384511098537</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>82.44674344852366</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,19 +4100,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="U45" t="n">
-        <v>93.60438629487248</v>
+        <v>44.48700107592668</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.1778637326107</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="C11" t="n">
-        <v>268.1778637326107</v>
+        <v>79.0780934399388</v>
       </c>
       <c r="D11" t="n">
-        <v>196.588121196262</v>
+        <v>79.0780934399388</v>
       </c>
       <c r="E11" t="n">
-        <v>102.0382360499259</v>
+        <v>79.0780934399388</v>
       </c>
       <c r="F11" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G11" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H11" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I11" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J11" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K11" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L11" t="n">
-        <v>61.69656167120463</v>
+        <v>61.69656167120468</v>
       </c>
       <c r="M11" t="n">
-        <v>154.3649041031287</v>
+        <v>154.3649041031285</v>
       </c>
       <c r="N11" t="n">
-        <v>247.0332465350527</v>
+        <v>247.0332465350523</v>
       </c>
       <c r="O11" t="n">
-        <v>339.7015889669764</v>
+        <v>339.7015889669761</v>
       </c>
       <c r="P11" t="n">
-        <v>362.7277488789468</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="Q11" t="n">
-        <v>362.7277488789468</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="R11" t="n">
-        <v>362.7277488789468</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="S11" t="n">
-        <v>362.7277488789468</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="T11" t="n">
-        <v>362.7277488789468</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="U11" t="n">
-        <v>362.7277488789468</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="V11" t="n">
-        <v>362.7277488789468</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="W11" t="n">
-        <v>362.7277488789468</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="X11" t="n">
-        <v>362.7277488789468</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="Y11" t="n">
-        <v>268.1778637326107</v>
+        <v>173.6279785862747</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>90.76788974048264</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="C12" t="n">
-        <v>90.76788974048264</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D12" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E12" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F12" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G12" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H12" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I12" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J12" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K12" t="n">
-        <v>23.07242301385965</v>
+        <v>23.07242301385966</v>
       </c>
       <c r="L12" t="n">
-        <v>31.28121785079722</v>
+        <v>115.7407654457835</v>
       </c>
       <c r="M12" t="n">
-        <v>123.9495602827212</v>
+        <v>123.9495602827208</v>
       </c>
       <c r="N12" t="n">
-        <v>216.6179027146452</v>
+        <v>216.6179027146446</v>
       </c>
       <c r="O12" t="n">
-        <v>309.2862451465692</v>
+        <v>309.2862451465684</v>
       </c>
       <c r="P12" t="n">
-        <v>374.4175451794909</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="Q12" t="n">
-        <v>374.4175451794909</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="R12" t="n">
-        <v>279.8676600331548</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="S12" t="n">
-        <v>279.8676600331548</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="T12" t="n">
-        <v>279.8676600331548</v>
+        <v>185.3177748868184</v>
       </c>
       <c r="U12" t="n">
-        <v>279.8676600331548</v>
+        <v>90.76788974048246</v>
       </c>
       <c r="V12" t="n">
-        <v>185.3177748868187</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="W12" t="n">
-        <v>185.3177748868187</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="X12" t="n">
-        <v>90.76788974048264</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Y12" t="n">
-        <v>90.76788974048264</v>
+        <v>7.488350903589803</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="C13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="M13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="N13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="O13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="P13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="R13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="S13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="T13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="U13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="V13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="W13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="X13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.488350903589819</v>
+        <v>7.488350903589803</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.6279785862745</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="C14" t="n">
-        <v>173.6279785862745</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="D14" t="n">
+        <v>7.488350903589804</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.488350903589804</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.488350903589804</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.488350903589804</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.488350903589804</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.488350903589804</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.488350903589804</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.488350903589804</v>
+      </c>
+      <c r="L14" t="n">
+        <v>61.69656167120468</v>
+      </c>
+      <c r="M14" t="n">
+        <v>154.3649041031285</v>
+      </c>
+      <c r="N14" t="n">
+        <v>247.0332465350523</v>
+      </c>
+      <c r="O14" t="n">
+        <v>339.7015889669761</v>
+      </c>
+      <c r="P14" t="n">
+        <v>362.7277488789466</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>362.7277488789466</v>
+      </c>
+      <c r="R14" t="n">
+        <v>362.7277488789466</v>
+      </c>
+      <c r="S14" t="n">
+        <v>362.7277488789466</v>
+      </c>
+      <c r="T14" t="n">
+        <v>362.7277488789466</v>
+      </c>
+      <c r="U14" t="n">
+        <v>362.7277488789466</v>
+      </c>
+      <c r="V14" t="n">
+        <v>291.1380063425976</v>
+      </c>
+      <c r="W14" t="n">
+        <v>196.5881211962617</v>
+      </c>
+      <c r="X14" t="n">
+        <v>196.5881211962617</v>
+      </c>
+      <c r="Y14" t="n">
         <v>102.0382360499257</v>
-      </c>
-      <c r="E14" t="n">
-        <v>102.0382360499257</v>
-      </c>
-      <c r="F14" t="n">
-        <v>102.0382360499257</v>
-      </c>
-      <c r="G14" t="n">
-        <v>102.0382360499257</v>
-      </c>
-      <c r="H14" t="n">
-        <v>102.0382360499257</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.4883509035898</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.4883509035898</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7.4883509035898</v>
-      </c>
-      <c r="L14" t="n">
-        <v>61.69656167120461</v>
-      </c>
-      <c r="M14" t="n">
-        <v>154.3649041031284</v>
-      </c>
-      <c r="N14" t="n">
-        <v>247.0332465350522</v>
-      </c>
-      <c r="O14" t="n">
-        <v>339.7015889669759</v>
-      </c>
-      <c r="P14" t="n">
-        <v>362.7277488789463</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>362.7277488789463</v>
-      </c>
-      <c r="R14" t="n">
-        <v>362.7277488789463</v>
-      </c>
-      <c r="S14" t="n">
-        <v>362.7277488789463</v>
-      </c>
-      <c r="T14" t="n">
-        <v>362.7277488789463</v>
-      </c>
-      <c r="U14" t="n">
-        <v>362.7277488789463</v>
-      </c>
-      <c r="V14" t="n">
-        <v>268.1778637326104</v>
-      </c>
-      <c r="W14" t="n">
-        <v>268.1778637326104</v>
-      </c>
-      <c r="X14" t="n">
-        <v>268.1778637326104</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>173.6279785862745</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>185.3177748868183</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="C15" t="n">
-        <v>185.3177748868183</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="D15" t="n">
-        <v>90.76788974048242</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="E15" t="n">
-        <v>90.76788974048242</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="F15" t="n">
-        <v>90.76788974048242</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="G15" t="n">
-        <v>90.76788974048242</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="H15" t="n">
-        <v>74.00043463926258</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="I15" t="n">
-        <v>74.00043463926258</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="J15" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="K15" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="L15" t="n">
         <v>100.1566933355136</v>
       </c>
       <c r="M15" t="n">
-        <v>189.0808603156424</v>
+        <v>192.8250357674375</v>
       </c>
       <c r="N15" t="n">
-        <v>281.7492027475662</v>
+        <v>285.4933781993613</v>
       </c>
       <c r="O15" t="n">
-        <v>374.41754517949</v>
+        <v>309.2862451465685</v>
       </c>
       <c r="P15" t="n">
-        <v>374.41754517949</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="Q15" t="n">
-        <v>374.41754517949</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="R15" t="n">
-        <v>374.41754517949</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="S15" t="n">
-        <v>374.41754517949</v>
+        <v>185.3177748868183</v>
       </c>
       <c r="T15" t="n">
-        <v>374.41754517949</v>
+        <v>90.76788974048242</v>
       </c>
       <c r="U15" t="n">
-        <v>374.41754517949</v>
+        <v>90.76788974048242</v>
       </c>
       <c r="V15" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="W15" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="X15" t="n">
-        <v>279.8676600331542</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="Y15" t="n">
-        <v>185.3177748868183</v>
+        <v>7.488350903589804</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="C16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="D16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="E16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="F16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="G16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="H16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="J16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="L16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="M16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="N16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="O16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="P16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="R16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="S16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="T16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="U16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="V16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="X16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589804</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.032720414516817</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="C17" t="n">
-        <v>9.032720414516817</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="D17" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E17" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F17" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G17" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H17" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I17" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J17" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K17" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L17" t="n">
-        <v>63.24093118213163</v>
+        <v>63.24093118213169</v>
       </c>
       <c r="M17" t="n">
-        <v>175.0208463117772</v>
+        <v>175.0208463117773</v>
       </c>
       <c r="N17" t="n">
-        <v>286.8007614414228</v>
+        <v>286.800761441423</v>
       </c>
       <c r="O17" t="n">
-        <v>379.4691038733466</v>
+        <v>379.4691038733468</v>
       </c>
       <c r="P17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="Q17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="R17" t="n">
-        <v>351.1812209643962</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="S17" t="n">
-        <v>237.1317207811031</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="T17" t="n">
-        <v>237.1317207811031</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="U17" t="n">
-        <v>123.08222059781</v>
+        <v>288.445763602024</v>
       </c>
       <c r="V17" t="n">
-        <v>123.08222059781</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="W17" t="n">
-        <v>9.032720414516817</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="X17" t="n">
-        <v>9.032720414516817</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.032720414516817</v>
+        <v>60.34676323543756</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="C18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="D18" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="E18" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="F18" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="G18" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H18" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I18" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J18" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K18" t="n">
-        <v>24.61679252478665</v>
+        <v>24.61679252478667</v>
       </c>
       <c r="L18" t="n">
-        <v>120.8456300481194</v>
+        <v>120.8456300481195</v>
       </c>
       <c r="M18" t="n">
-        <v>232.625545177765</v>
+        <v>162.944890433628</v>
       </c>
       <c r="N18" t="n">
-        <v>339.8561055961952</v>
+        <v>274.7248055632737</v>
       </c>
       <c r="O18" t="n">
-        <v>451.6360207258408</v>
+        <v>386.5047206929193</v>
       </c>
       <c r="P18" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="Q18" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="R18" t="n">
-        <v>337.5865205425476</v>
+        <v>451.636020725841</v>
       </c>
       <c r="S18" t="n">
-        <v>223.5370203592545</v>
+        <v>451.636020725841</v>
       </c>
       <c r="T18" t="n">
-        <v>223.5370203592545</v>
+        <v>451.636020725841</v>
       </c>
       <c r="U18" t="n">
-        <v>223.5370203592545</v>
+        <v>451.636020725841</v>
       </c>
       <c r="V18" t="n">
-        <v>223.5370203592545</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="W18" t="n">
-        <v>223.5370203592545</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="X18" t="n">
-        <v>123.08222059781</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="Y18" t="n">
-        <v>123.08222059781</v>
+        <v>237.1317207811032</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="C19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="D19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="M19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="N19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="O19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="P19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="R19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="S19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="T19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="U19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="V19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="W19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="X19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.1689130731964</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="C20" t="n">
-        <v>112.1689130731964</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="D20" t="n">
-        <v>9.032720414516817</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="E20" t="n">
-        <v>9.032720414516817</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="F20" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G20" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H20" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I20" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J20" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K20" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L20" t="n">
-        <v>63.24093118213163</v>
+        <v>63.24093118213169</v>
       </c>
       <c r="M20" t="n">
-        <v>175.0208463117772</v>
+        <v>175.0208463117773</v>
       </c>
       <c r="N20" t="n">
-        <v>286.8007614414228</v>
+        <v>286.800761441423</v>
       </c>
       <c r="O20" t="n">
-        <v>379.4691038733466</v>
+        <v>379.4691038733468</v>
       </c>
       <c r="P20" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="Q20" t="n">
-        <v>340.2679134397827</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="R20" t="n">
-        <v>340.2679134397827</v>
+        <v>288.445763602024</v>
       </c>
       <c r="S20" t="n">
-        <v>340.2679134397827</v>
+        <v>288.445763602024</v>
       </c>
       <c r="T20" t="n">
-        <v>226.2184132564896</v>
+        <v>288.445763602024</v>
       </c>
       <c r="U20" t="n">
-        <v>226.2184132564896</v>
+        <v>288.445763602024</v>
       </c>
       <c r="V20" t="n">
-        <v>226.2184132564896</v>
+        <v>288.445763602024</v>
       </c>
       <c r="W20" t="n">
-        <v>112.1689130731964</v>
+        <v>288.445763602024</v>
       </c>
       <c r="X20" t="n">
-        <v>112.1689130731964</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.1689130731964</v>
+        <v>174.3962634187308</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="C21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="D21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K21" t="n">
-        <v>24.61679252478665</v>
+        <v>24.61679252478667</v>
       </c>
       <c r="L21" t="n">
-        <v>120.8456300481194</v>
+        <v>120.8456300481195</v>
       </c>
       <c r="M21" t="n">
-        <v>232.625545177765</v>
+        <v>232.6255451777652</v>
       </c>
       <c r="N21" t="n">
-        <v>274.7248055632735</v>
+        <v>274.7248055632737</v>
       </c>
       <c r="O21" t="n">
-        <v>386.5047206929191</v>
+        <v>386.5047206929193</v>
       </c>
       <c r="P21" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="Q21" t="n">
-        <v>413.2928466121064</v>
+        <v>451.636020725841</v>
       </c>
       <c r="R21" t="n">
-        <v>299.2433464288132</v>
+        <v>451.636020725841</v>
       </c>
       <c r="S21" t="n">
-        <v>299.2433464288132</v>
+        <v>451.636020725841</v>
       </c>
       <c r="T21" t="n">
-        <v>185.1938462455201</v>
+        <v>351.1812209643965</v>
       </c>
       <c r="U21" t="n">
-        <v>71.14434606222693</v>
+        <v>351.1812209643965</v>
       </c>
       <c r="V21" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="W21" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="X21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="C22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="D22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="M22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="N22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="O22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="P22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="R22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="S22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="T22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="U22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="V22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="W22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="X22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="C23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L23" t="n">
-        <v>63.99294366736027</v>
+        <v>63.99294366736034</v>
       </c>
       <c r="M23" t="n">
-        <v>175.7728587970059</v>
+        <v>175.772858797006</v>
       </c>
       <c r="N23" t="n">
-        <v>296.8589284313559</v>
+        <v>296.8589284313562</v>
       </c>
       <c r="O23" t="n">
-        <v>389.5272708632797</v>
+        <v>389.52727086328</v>
       </c>
       <c r="P23" t="n">
-        <v>412.55343077525</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.3260804297158</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="R23" t="n">
-        <v>256.8739475397823</v>
+        <v>289.0088234552318</v>
       </c>
       <c r="S23" t="n">
-        <v>133.3293402197639</v>
+        <v>289.0088234552318</v>
       </c>
       <c r="T23" t="n">
-        <v>133.3293402197639</v>
+        <v>289.0088234552318</v>
       </c>
       <c r="U23" t="n">
-        <v>133.3293402197639</v>
+        <v>289.0088234552318</v>
       </c>
       <c r="V23" t="n">
-        <v>9.784732899745459</v>
+        <v>289.0088234552318</v>
       </c>
       <c r="W23" t="n">
-        <v>9.784732899745459</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="X23" t="n">
-        <v>9.784732899745459</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.784732899745459</v>
+        <v>256.8739475397825</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C24" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D24" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E24" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G24" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H24" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I24" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J24" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K24" t="n">
-        <v>25.36880501001529</v>
+        <v>25.36880501001532</v>
       </c>
       <c r="L24" t="n">
-        <v>121.5976425333481</v>
+        <v>121.5976425333482</v>
       </c>
       <c r="M24" t="n">
-        <v>242.6837121676981</v>
+        <v>242.6837121676983</v>
       </c>
       <c r="N24" t="n">
-        <v>303.8101084897233</v>
+        <v>303.8101084897236</v>
       </c>
       <c r="O24" t="n">
-        <v>424.1053449543513</v>
+        <v>424.1053449543517</v>
       </c>
       <c r="P24" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="Q24" t="n">
-        <v>450.8934708735385</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="R24" t="n">
-        <v>450.8934708735385</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="S24" t="n">
-        <v>450.8934708735385</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="T24" t="n">
-        <v>327.3488635535201</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="U24" t="n">
-        <v>327.3488635535201</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="V24" t="n">
-        <v>203.8042562335016</v>
+        <v>242.1474303472363</v>
       </c>
       <c r="W24" t="n">
-        <v>203.8042562335016</v>
+        <v>133.329340219764</v>
       </c>
       <c r="X24" t="n">
-        <v>203.8042562335016</v>
+        <v>133.329340219764</v>
       </c>
       <c r="Y24" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="M25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="N25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="O25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="P25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="R25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="S25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="T25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="U25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="V25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="W25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="X25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L26" t="n">
-        <v>63.99294366736027</v>
+        <v>63.99294366736034</v>
       </c>
       <c r="M26" t="n">
-        <v>175.7728587970059</v>
+        <v>175.772858797006</v>
       </c>
       <c r="N26" t="n">
-        <v>296.8589284313559</v>
+        <v>296.8589284313562</v>
       </c>
       <c r="O26" t="n">
-        <v>389.5272708632797</v>
+        <v>389.52727086328</v>
       </c>
       <c r="P26" t="n">
-        <v>412.55343077525</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.3260804297158</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="R26" t="n">
-        <v>226.7814731096974</v>
+        <v>289.0088234552318</v>
       </c>
       <c r="S26" t="n">
-        <v>133.3293402197639</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="T26" t="n">
-        <v>133.3293402197639</v>
+        <v>133.329340219764</v>
       </c>
       <c r="U26" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="V26" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="W26" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="X26" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.784732899745459</v>
+        <v>76.29681663541821</v>
       </c>
       <c r="C27" t="n">
-        <v>9.784732899745459</v>
+        <v>76.29681663541821</v>
       </c>
       <c r="D27" t="n">
-        <v>9.784732899745459</v>
+        <v>76.29681663541821</v>
       </c>
       <c r="E27" t="n">
-        <v>9.784732899745459</v>
+        <v>76.29681663541821</v>
       </c>
       <c r="F27" t="n">
-        <v>9.784732899745459</v>
+        <v>76.29681663541821</v>
       </c>
       <c r="G27" t="n">
-        <v>9.784732899745459</v>
+        <v>76.29681663541821</v>
       </c>
       <c r="H27" t="n">
-        <v>9.784732899745459</v>
+        <v>76.29681663541821</v>
       </c>
       <c r="I27" t="n">
-        <v>9.784732899745459</v>
+        <v>76.29681663541821</v>
       </c>
       <c r="J27" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K27" t="n">
-        <v>25.36880501001529</v>
+        <v>25.36880501001532</v>
       </c>
       <c r="L27" t="n">
-        <v>121.5976425333481</v>
+        <v>121.5976425333482</v>
       </c>
       <c r="M27" t="n">
-        <v>242.6837121676981</v>
+        <v>182.7240388553735</v>
       </c>
       <c r="N27" t="n">
-        <v>303.8101084897233</v>
+        <v>303.8101084897236</v>
       </c>
       <c r="O27" t="n">
-        <v>424.1053449543513</v>
+        <v>424.1053449543517</v>
       </c>
       <c r="P27" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="Q27" t="n">
-        <v>450.8934708735385</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="R27" t="n">
-        <v>450.8934708735385</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="S27" t="n">
-        <v>380.4185548598007</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="T27" t="n">
-        <v>380.4185548598007</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="U27" t="n">
-        <v>256.8739475397823</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="V27" t="n">
-        <v>133.3293402197639</v>
+        <v>242.1474303472363</v>
       </c>
       <c r="W27" t="n">
-        <v>133.3293402197639</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="X27" t="n">
-        <v>133.3293402197639</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.784732899745459</v>
+        <v>76.29681663541821</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="M28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="N28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="O28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="P28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="R28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="S28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="T28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="U28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="V28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="W28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="X28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L29" t="n">
-        <v>63.99294366736027</v>
+        <v>63.99294366736034</v>
       </c>
       <c r="M29" t="n">
-        <v>175.7728587970059</v>
+        <v>175.772858797006</v>
       </c>
       <c r="N29" t="n">
-        <v>296.8589284313559</v>
+        <v>296.8589284313562</v>
       </c>
       <c r="O29" t="n">
-        <v>389.5272708632797</v>
+        <v>389.52727086328</v>
       </c>
       <c r="P29" t="n">
-        <v>412.55343077525</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.3260804297158</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="R29" t="n">
-        <v>350.3260804297158</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="S29" t="n">
-        <v>256.8739475397823</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="T29" t="n">
-        <v>133.3293402197639</v>
+        <v>289.0088234552318</v>
       </c>
       <c r="U29" t="n">
-        <v>133.3293402197639</v>
+        <v>165.4642161352133</v>
       </c>
       <c r="V29" t="n">
-        <v>9.784732899745459</v>
+        <v>165.4642161352133</v>
       </c>
       <c r="W29" t="n">
-        <v>9.784732899745459</v>
+        <v>41.91960881519475</v>
       </c>
       <c r="X29" t="n">
-        <v>9.784732899745459</v>
+        <v>41.91960881519475</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.784732899745459</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="C30" t="n">
-        <v>9.784732899745459</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="D30" t="n">
-        <v>9.784732899745459</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="E30" t="n">
-        <v>9.784732899745459</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="F30" t="n">
-        <v>9.784732899745459</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="G30" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H30" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I30" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J30" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K30" t="n">
-        <v>25.36880501001529</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L30" t="n">
-        <v>121.5976425333481</v>
+        <v>106.0135704230783</v>
       </c>
       <c r="M30" t="n">
-        <v>182.7240388553732</v>
+        <v>182.7240388553735</v>
       </c>
       <c r="N30" t="n">
-        <v>303.8101084897233</v>
+        <v>303.8101084897236</v>
       </c>
       <c r="O30" t="n">
-        <v>424.1053449543513</v>
+        <v>424.1053449543517</v>
       </c>
       <c r="P30" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="Q30" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="R30" t="n">
-        <v>365.6920376672545</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="S30" t="n">
-        <v>365.6920376672545</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="T30" t="n">
-        <v>365.6920376672545</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="U30" t="n">
-        <v>365.6920376672545</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="V30" t="n">
-        <v>242.1474303472361</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="W30" t="n">
-        <v>118.6028230272177</v>
+        <v>242.1474303472363</v>
       </c>
       <c r="X30" t="n">
-        <v>9.784732899745459</v>
+        <v>242.1474303472363</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.784732899745459</v>
+        <v>118.6028230272178</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="M31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="N31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="O31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="P31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="R31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="S31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="T31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="U31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="V31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="W31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="X31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>103.236865789679</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="C32" t="n">
-        <v>103.236865789679</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="D32" t="n">
-        <v>9.784732899745459</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="E32" t="n">
-        <v>9.784732899745459</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="F32" t="n">
-        <v>9.784732899745459</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="G32" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="H32" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I32" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J32" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K32" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L32" t="n">
-        <v>63.99294366736027</v>
+        <v>63.99294366736034</v>
       </c>
       <c r="M32" t="n">
-        <v>175.7728587970059</v>
+        <v>175.772858797006</v>
       </c>
       <c r="N32" t="n">
-        <v>296.8589284313559</v>
+        <v>296.8589284313562</v>
       </c>
       <c r="O32" t="n">
-        <v>389.5272708632797</v>
+        <v>389.52727086328</v>
       </c>
       <c r="P32" t="n">
-        <v>412.55343077525</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.3260804297158</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="R32" t="n">
-        <v>350.3260804297158</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="S32" t="n">
-        <v>350.3260804297158</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="T32" t="n">
-        <v>350.3260804297158</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="U32" t="n">
-        <v>350.3260804297158</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="V32" t="n">
-        <v>350.3260804297158</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="W32" t="n">
-        <v>226.7814731096974</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="X32" t="n">
-        <v>103.236865789679</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="Y32" t="n">
-        <v>103.236865789679</v>
+        <v>256.8739475397825</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>133.3293402197639</v>
+        <v>203.8042562335019</v>
       </c>
       <c r="C33" t="n">
-        <v>133.3293402197639</v>
+        <v>203.8042562335019</v>
       </c>
       <c r="D33" t="n">
-        <v>133.3293402197639</v>
+        <v>133.329340219764</v>
       </c>
       <c r="E33" t="n">
-        <v>133.3293402197639</v>
+        <v>133.329340219764</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G33" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H33" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I33" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J33" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K33" t="n">
-        <v>25.36880501001529</v>
+        <v>25.36880501001532</v>
       </c>
       <c r="L33" t="n">
-        <v>121.5976425333481</v>
+        <v>121.5976425333482</v>
       </c>
       <c r="M33" t="n">
-        <v>182.7240388553732</v>
+        <v>242.6837121676983</v>
       </c>
       <c r="N33" t="n">
-        <v>303.8101084897233</v>
+        <v>303.8101084897236</v>
       </c>
       <c r="O33" t="n">
-        <v>424.1053449543513</v>
+        <v>424.1053449543517</v>
       </c>
       <c r="P33" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="Q33" t="n">
-        <v>450.8934708735385</v>
+        <v>450.893470873539</v>
       </c>
       <c r="R33" t="n">
-        <v>450.8934708735385</v>
+        <v>450.893470873539</v>
       </c>
       <c r="S33" t="n">
-        <v>450.8934708735385</v>
+        <v>327.3488635535205</v>
       </c>
       <c r="T33" t="n">
-        <v>450.8934708735385</v>
+        <v>327.3488635535205</v>
       </c>
       <c r="U33" t="n">
-        <v>450.8934708735385</v>
+        <v>327.3488635535205</v>
       </c>
       <c r="V33" t="n">
-        <v>327.3488635535201</v>
+        <v>327.3488635535205</v>
       </c>
       <c r="W33" t="n">
-        <v>256.8739475397823</v>
+        <v>203.8042562335019</v>
       </c>
       <c r="X33" t="n">
-        <v>133.3293402197639</v>
+        <v>203.8042562335019</v>
       </c>
       <c r="Y33" t="n">
-        <v>133.3293402197639</v>
+        <v>203.8042562335019</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="M34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="N34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="O34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="P34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="R34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="S34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="T34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="U34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="V34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="W34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="X34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.34676323543755</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="C35" t="n">
-        <v>60.34676323543755</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="D35" t="n">
-        <v>9.032720414516817</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="E35" t="n">
-        <v>9.032720414516817</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="F35" t="n">
-        <v>9.032720414516817</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="G35" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H35" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I35" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J35" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K35" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L35" t="n">
-        <v>63.24093118213163</v>
+        <v>63.24093118213169</v>
       </c>
       <c r="M35" t="n">
-        <v>175.0208463117772</v>
+        <v>175.0208463117773</v>
       </c>
       <c r="N35" t="n">
-        <v>286.8007614414228</v>
+        <v>286.800761441423</v>
       </c>
       <c r="O35" t="n">
-        <v>379.4691038733466</v>
+        <v>379.4691038733468</v>
       </c>
       <c r="P35" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="Q35" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="R35" t="n">
-        <v>402.4952637853169</v>
+        <v>288.445763602024</v>
       </c>
       <c r="S35" t="n">
-        <v>402.4952637853169</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="T35" t="n">
-        <v>402.4952637853169</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="U35" t="n">
-        <v>288.4457636020238</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="V35" t="n">
-        <v>288.4457636020238</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="W35" t="n">
-        <v>174.3962634187307</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="X35" t="n">
-        <v>60.34676323543755</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="Y35" t="n">
-        <v>60.34676323543755</v>
+        <v>174.3962634187308</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.032720414516817</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="C36" t="n">
-        <v>9.032720414516817</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="D36" t="n">
-        <v>9.032720414516817</v>
+        <v>223.5370203592546</v>
       </c>
       <c r="E36" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="F36" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G36" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H36" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I36" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J36" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K36" t="n">
-        <v>24.61679252478665</v>
+        <v>24.61679252478667</v>
       </c>
       <c r="L36" t="n">
-        <v>51.16497530398236</v>
+        <v>120.8456300481195</v>
       </c>
       <c r="M36" t="n">
-        <v>162.944890433628</v>
+        <v>232.6255451777652</v>
       </c>
       <c r="N36" t="n">
-        <v>274.7248055632735</v>
+        <v>274.7248055632737</v>
       </c>
       <c r="O36" t="n">
-        <v>386.5047206929191</v>
+        <v>386.5047206929193</v>
       </c>
       <c r="P36" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="Q36" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="R36" t="n">
-        <v>337.5865205425476</v>
+        <v>451.636020725841</v>
       </c>
       <c r="S36" t="n">
-        <v>223.5370203592545</v>
+        <v>451.636020725841</v>
       </c>
       <c r="T36" t="n">
-        <v>223.5370203592545</v>
+        <v>451.636020725841</v>
       </c>
       <c r="U36" t="n">
-        <v>223.5370203592545</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="V36" t="n">
-        <v>223.5370203592545</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="W36" t="n">
-        <v>223.5370203592545</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="X36" t="n">
-        <v>123.08222059781</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.032720414516817</v>
+        <v>337.5865205425478</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="C37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="D37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="M37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="N37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="O37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="P37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="R37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="S37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="T37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="U37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="V37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="W37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="X37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>174.3962634187307</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="C38" t="n">
-        <v>174.3962634187307</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="D38" t="n">
-        <v>123.08222059781</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="E38" t="n">
-        <v>123.08222059781</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="F38" t="n">
-        <v>123.08222059781</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="G38" t="n">
-        <v>123.08222059781</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="H38" t="n">
-        <v>123.08222059781</v>
+        <v>60.34676323543756</v>
       </c>
       <c r="I38" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J38" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K38" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L38" t="n">
-        <v>63.24093118213163</v>
+        <v>63.24093118213169</v>
       </c>
       <c r="M38" t="n">
-        <v>175.0208463117772</v>
+        <v>175.0208463117773</v>
       </c>
       <c r="N38" t="n">
-        <v>286.8007614414228</v>
+        <v>286.800761441423</v>
       </c>
       <c r="O38" t="n">
-        <v>379.4691038733466</v>
+        <v>379.4691038733468</v>
       </c>
       <c r="P38" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="Q38" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="R38" t="n">
-        <v>402.4952637853169</v>
+        <v>288.445763602024</v>
       </c>
       <c r="S38" t="n">
-        <v>402.4952637853169</v>
+        <v>288.445763602024</v>
       </c>
       <c r="T38" t="n">
-        <v>288.4457636020238</v>
+        <v>288.445763602024</v>
       </c>
       <c r="U38" t="n">
-        <v>288.4457636020238</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="V38" t="n">
-        <v>174.3962634187307</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="W38" t="n">
-        <v>174.3962634187307</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="X38" t="n">
-        <v>174.3962634187307</v>
+        <v>174.3962634187308</v>
       </c>
       <c r="Y38" t="n">
-        <v>174.3962634187307</v>
+        <v>174.3962634187308</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>9.03272041451682</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.03272041451682</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.03272041451682</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9.03272041451682</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9.03272041451682</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9.03272041451682</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.03272041451682</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.03272041451682</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9.03272041451682</v>
+      </c>
+      <c r="K39" t="n">
+        <v>24.61679252478667</v>
+      </c>
+      <c r="L39" t="n">
+        <v>120.8456300481195</v>
+      </c>
+      <c r="M39" t="n">
+        <v>232.6255451777652</v>
+      </c>
+      <c r="N39" t="n">
+        <v>344.4054603074108</v>
+      </c>
+      <c r="O39" t="n">
+        <v>386.5047206929193</v>
+      </c>
+      <c r="P39" t="n">
+        <v>451.636020725841</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>451.636020725841</v>
+      </c>
+      <c r="R39" t="n">
+        <v>451.636020725841</v>
+      </c>
+      <c r="S39" t="n">
+        <v>337.5865205425478</v>
+      </c>
+      <c r="T39" t="n">
+        <v>223.5370203592546</v>
+      </c>
+      <c r="U39" t="n">
         <v>123.08222059781</v>
       </c>
-      <c r="C39" t="n">
+      <c r="V39" t="n">
         <v>123.08222059781</v>
       </c>
-      <c r="D39" t="n">
-        <v>9.032720414516817</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9.032720414516817</v>
-      </c>
-      <c r="F39" t="n">
-        <v>9.032720414516817</v>
-      </c>
-      <c r="G39" t="n">
-        <v>9.032720414516817</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9.032720414516817</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9.032720414516817</v>
-      </c>
-      <c r="J39" t="n">
-        <v>9.032720414516817</v>
-      </c>
-      <c r="K39" t="n">
-        <v>24.61679252478665</v>
-      </c>
-      <c r="L39" t="n">
-        <v>120.8456300481194</v>
-      </c>
-      <c r="M39" t="n">
-        <v>232.625545177765</v>
-      </c>
-      <c r="N39" t="n">
-        <v>344.4054603074106</v>
-      </c>
-      <c r="O39" t="n">
-        <v>386.5047206929191</v>
-      </c>
-      <c r="P39" t="n">
-        <v>451.6360207258408</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>451.6360207258408</v>
-      </c>
-      <c r="R39" t="n">
-        <v>451.6360207258408</v>
-      </c>
-      <c r="S39" t="n">
-        <v>451.6360207258408</v>
-      </c>
-      <c r="T39" t="n">
-        <v>451.6360207258408</v>
-      </c>
-      <c r="U39" t="n">
-        <v>337.5865205425476</v>
-      </c>
-      <c r="V39" t="n">
-        <v>337.5865205425476</v>
-      </c>
       <c r="W39" t="n">
-        <v>237.1317207811031</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="X39" t="n">
-        <v>237.1317207811031</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y39" t="n">
-        <v>237.1317207811031</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="C40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="D40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="M40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="N40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="O40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="P40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="R40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="S40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="T40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="U40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="V40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="W40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="X40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>102.0382360499257</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="C41" t="n">
         <v>102.0382360499257</v>
       </c>
       <c r="D41" t="n">
-        <v>102.0382360499257</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E41" t="n">
-        <v>102.0382360499257</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F41" t="n">
-        <v>102.0382360499257</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G41" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H41" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I41" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J41" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K41" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L41" t="n">
-        <v>61.69656167120461</v>
+        <v>61.69656167120468</v>
       </c>
       <c r="M41" t="n">
-        <v>154.3649041031284</v>
+        <v>154.3649041031285</v>
       </c>
       <c r="N41" t="n">
-        <v>247.0332465350521</v>
+        <v>247.0332465350523</v>
       </c>
       <c r="O41" t="n">
-        <v>339.7015889669759</v>
+        <v>339.7015889669761</v>
       </c>
       <c r="P41" t="n">
-        <v>362.7277488789462</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="Q41" t="n">
-        <v>362.7277488789462</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="R41" t="n">
-        <v>362.7277488789462</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="S41" t="n">
-        <v>362.7277488789462</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="T41" t="n">
-        <v>362.7277488789462</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="U41" t="n">
-        <v>291.1380063425974</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="V41" t="n">
-        <v>291.1380063425974</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="W41" t="n">
-        <v>196.5881211962615</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="X41" t="n">
-        <v>102.0382360499257</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="Y41" t="n">
-        <v>102.0382360499257</v>
+        <v>173.6279785862747</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>185.3177748868183</v>
+        <v>90.76788974048246</v>
       </c>
       <c r="C42" t="n">
-        <v>185.3177748868183</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D42" t="n">
-        <v>185.3177748868183</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E42" t="n">
-        <v>102.0382360499257</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F42" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G42" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H42" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I42" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J42" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K42" t="n">
-        <v>7.488350903589799</v>
+        <v>23.07242301385966</v>
       </c>
       <c r="L42" t="n">
-        <v>100.1566933355136</v>
+        <v>115.7407654457835</v>
       </c>
       <c r="M42" t="n">
-        <v>192.8250357674373</v>
+        <v>208.4091078777073</v>
       </c>
       <c r="N42" t="n">
-        <v>285.4933781993611</v>
+        <v>216.6179027146446</v>
       </c>
       <c r="O42" t="n">
-        <v>309.2862451465683</v>
+        <v>309.2862451465684</v>
       </c>
       <c r="P42" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="Q42" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="R42" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="S42" t="n">
-        <v>279.8676600331541</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="T42" t="n">
-        <v>279.8676600331541</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="U42" t="n">
-        <v>279.8676600331541</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="V42" t="n">
-        <v>279.8676600331541</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="W42" t="n">
-        <v>279.8676600331541</v>
+        <v>185.3177748868184</v>
       </c>
       <c r="X42" t="n">
-        <v>279.8676600331541</v>
+        <v>185.3177748868184</v>
       </c>
       <c r="Y42" t="n">
-        <v>185.3177748868183</v>
+        <v>90.76788974048246</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="C43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="M43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="N43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="O43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="P43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="R43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="S43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="T43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="U43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="V43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="W43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="X43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.488350903589799</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="C44" t="n">
-        <v>7.488350903589799</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="D44" t="n">
-        <v>7.488350903589799</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="E44" t="n">
-        <v>7.488350903589799</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="F44" t="n">
-        <v>7.488350903589799</v>
+        <v>79.0780934399388</v>
       </c>
       <c r="G44" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H44" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I44" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J44" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K44" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L44" t="n">
-        <v>61.69656167120461</v>
+        <v>61.69656167120468</v>
       </c>
       <c r="M44" t="n">
-        <v>154.3649041031284</v>
+        <v>154.3649041031285</v>
       </c>
       <c r="N44" t="n">
-        <v>247.0332465350521</v>
+        <v>247.0332465350523</v>
       </c>
       <c r="O44" t="n">
-        <v>339.7015889669759</v>
+        <v>339.7015889669761</v>
       </c>
       <c r="P44" t="n">
-        <v>362.7277488789462</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="Q44" t="n">
-        <v>362.7277488789462</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="R44" t="n">
-        <v>362.7277488789462</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="S44" t="n">
-        <v>362.7277488789462</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="T44" t="n">
-        <v>291.1380063425974</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="U44" t="n">
-        <v>291.1380063425974</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="V44" t="n">
-        <v>291.1380063425974</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="W44" t="n">
-        <v>196.5881211962615</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="X44" t="n">
-        <v>196.5881211962615</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="Y44" t="n">
-        <v>102.0382360499257</v>
+        <v>173.6279785862747</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>185.3177748868183</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="C45" t="n">
         <v>102.0382360499257</v>
       </c>
       <c r="D45" t="n">
-        <v>7.488350903589799</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="E45" t="n">
-        <v>7.488350903589799</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="F45" t="n">
-        <v>7.488350903589799</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="G45" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H45" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I45" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J45" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K45" t="n">
-        <v>23.07242301385963</v>
+        <v>23.07242301385966</v>
       </c>
       <c r="L45" t="n">
-        <v>115.7407654457834</v>
+        <v>115.7407654457835</v>
       </c>
       <c r="M45" t="n">
         <v>123.9495602827208</v>
       </c>
       <c r="N45" t="n">
-        <v>216.6179027146445</v>
+        <v>216.6179027146446</v>
       </c>
       <c r="O45" t="n">
-        <v>309.2862451465683</v>
+        <v>309.2862451465684</v>
       </c>
       <c r="P45" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="Q45" t="n">
-        <v>374.4175451794899</v>
+        <v>336.0743710657558</v>
       </c>
       <c r="R45" t="n">
-        <v>374.4175451794899</v>
+        <v>336.0743710657558</v>
       </c>
       <c r="S45" t="n">
-        <v>279.8676600331541</v>
+        <v>241.5244859194199</v>
       </c>
       <c r="T45" t="n">
-        <v>279.8676600331541</v>
+        <v>146.974600773084</v>
       </c>
       <c r="U45" t="n">
-        <v>185.3177748868183</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="V45" t="n">
-        <v>185.3177748868183</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="W45" t="n">
-        <v>185.3177748868183</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="X45" t="n">
-        <v>185.3177748868183</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="Y45" t="n">
-        <v>185.3177748868183</v>
+        <v>102.0382360499257</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="C46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="M46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="N46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="O46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="P46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Q46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="R46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="S46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="T46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="U46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="V46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="W46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="X46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Y46" t="n">
-        <v>374.4175451794899</v>
+        <v>7.488350903589803</v>
       </c>
     </row>
   </sheetData>
@@ -23260,16 +23260,16 @@
         <v>358.1696334656192</v>
       </c>
       <c r="C11" t="n">
-        <v>322.4677940726305</v>
+        <v>228.8634077777579</v>
       </c>
       <c r="D11" t="n">
-        <v>235.7669181618122</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E11" t="n">
-        <v>258.6343417017479</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F11" t="n">
-        <v>302.8262159761057</v>
+        <v>325.556757159993</v>
       </c>
       <c r="G11" t="n">
         <v>423.7272913613554</v>
@@ -23278,13 +23278,13 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I11" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J11" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K11" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R11" t="n">
         <v>176.0271760728542</v>
@@ -23320,13 +23320,13 @@
         <v>308.2281821605244</v>
       </c>
       <c r="W11" t="n">
-        <v>317.0122616388729</v>
+        <v>223.4078753440004</v>
       </c>
       <c r="X11" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y11" t="n">
-        <v>281.4052249816249</v>
+        <v>281.4052249816251</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>214.7813755111856</v>
       </c>
       <c r="D12" t="n">
-        <v>98.3143718659439</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E12" t="n">
         <v>197.9362491610792</v>
@@ -23357,10 +23357,10 @@
         <v>142.2203432934013</v>
       </c>
       <c r="I12" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J12" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,28 +23381,28 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R12" t="n">
-        <v>50.94804063305467</v>
+        <v>144.5524269279274</v>
       </c>
       <c r="S12" t="n">
-        <v>212.1459066321242</v>
+        <v>118.5415203372517</v>
       </c>
       <c r="T12" t="n">
-        <v>238.7355816105932</v>
+        <v>145.1311953157207</v>
       </c>
       <c r="U12" t="n">
-        <v>257.9488349539099</v>
+        <v>164.3444486590374</v>
       </c>
       <c r="V12" t="n">
-        <v>161.4926035988054</v>
+        <v>172.6502464451544</v>
       </c>
       <c r="W12" t="n">
         <v>294.3358934339082</v>
       </c>
       <c r="X12" t="n">
-        <v>144.9524887835852</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y12" t="n">
         <v>255.9713047452624</v>
@@ -23442,22 +23442,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K13" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L13" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M13" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N13" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O13" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P13" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q13" t="n">
         <v>141.9725891611085</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>358.1696334656192</v>
+        <v>264.5652471707467</v>
       </c>
       <c r="C14" t="n">
         <v>322.4677940726305</v>
       </c>
       <c r="D14" t="n">
-        <v>235.7669181618121</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E14" t="n">
         <v>352.2387279966206</v>
@@ -23515,13 +23515,13 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I14" t="n">
-        <v>141.1875374626487</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J14" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K14" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R14" t="n">
         <v>176.0271760728542</v>
@@ -23554,10 +23554,10 @@
         <v>247.8209062752278</v>
       </c>
       <c r="V14" t="n">
-        <v>214.6237958656519</v>
+        <v>237.3543370495389</v>
       </c>
       <c r="W14" t="n">
-        <v>317.0122616388729</v>
+        <v>223.4078753440004</v>
       </c>
       <c r="X14" t="n">
         <v>341.4686393609607</v>
@@ -23579,7 +23579,7 @@
         <v>214.7813755111856</v>
       </c>
       <c r="D15" t="n">
-        <v>87.15672901959529</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E15" t="n">
         <v>197.9362491610792</v>
@@ -23591,13 +23591,13 @@
         <v>168.8665695520695</v>
       </c>
       <c r="H15" t="n">
-        <v>125.6205627431937</v>
+        <v>142.2203432934013</v>
       </c>
       <c r="I15" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,31 +23618,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R15" t="n">
-        <v>144.5524269279274</v>
+        <v>50.94804063305484</v>
       </c>
       <c r="S15" t="n">
-        <v>212.1459066321242</v>
+        <v>118.5415203372516</v>
       </c>
       <c r="T15" t="n">
-        <v>238.7355816105932</v>
+        <v>145.1311953157207</v>
       </c>
       <c r="U15" t="n">
         <v>257.9488349539099</v>
       </c>
       <c r="V15" t="n">
-        <v>255.0969898936781</v>
+        <v>172.6502464451544</v>
       </c>
       <c r="W15" t="n">
         <v>294.3358934339082</v>
       </c>
       <c r="X15" t="n">
-        <v>144.9524887835854</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y15" t="n">
-        <v>162.36691845039</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="16">
@@ -23679,22 +23679,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K16" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L16" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M16" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N16" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O16" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P16" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q16" t="n">
         <v>141.9725891611085</v>
@@ -23737,7 +23737,7 @@
         <v>322.4677940726305</v>
       </c>
       <c r="D17" t="n">
-        <v>306.6407632727974</v>
+        <v>255.8398608800859</v>
       </c>
       <c r="E17" t="n">
         <v>352.2387279966206</v>
@@ -23752,13 +23752,13 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I17" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J17" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K17" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R17" t="n">
-        <v>125.2262736801427</v>
+        <v>176.0271760728542</v>
       </c>
       <c r="S17" t="n">
-        <v>111.7594195845948</v>
+        <v>224.668424766055</v>
       </c>
       <c r="T17" t="n">
         <v>214.2176952878866</v>
@@ -23791,7 +23791,7 @@
         <v>134.9119010937676</v>
       </c>
       <c r="V17" t="n">
-        <v>308.2281821605244</v>
+        <v>195.3191769790641</v>
       </c>
       <c r="W17" t="n">
         <v>204.1032564574127</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>82.6506294564708</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C18" t="n">
         <v>214.7813755111856</v>
       </c>
       <c r="D18" t="n">
-        <v>180.7611153144678</v>
+        <v>67.85211013300753</v>
       </c>
       <c r="E18" t="n">
         <v>197.9362491610792</v>
@@ -23825,16 +23825,16 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>168.8665695520695</v>
+        <v>55.95756437060928</v>
       </c>
       <c r="H18" t="n">
         <v>142.2203432934013</v>
       </c>
       <c r="I18" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J18" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,13 +23855,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R18" t="n">
-        <v>31.6434217464672</v>
+        <v>144.5524269279274</v>
       </c>
       <c r="S18" t="n">
-        <v>99.23690145066399</v>
+        <v>212.1459066321242</v>
       </c>
       <c r="T18" t="n">
         <v>238.7355816105932</v>
@@ -23870,16 +23870,16 @@
         <v>257.9488349539099</v>
       </c>
       <c r="V18" t="n">
-        <v>255.0969898936781</v>
+        <v>142.1879847122179</v>
       </c>
       <c r="W18" t="n">
         <v>294.3358934339082</v>
       </c>
       <c r="X18" t="n">
-        <v>139.1066233146278</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y18" t="n">
-        <v>255.9713047452624</v>
+        <v>156.5210529814323</v>
       </c>
     </row>
     <row r="19">
@@ -23916,22 +23916,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K19" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L19" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M19" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N19" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O19" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P19" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q19" t="n">
         <v>141.9725891611085</v>
@@ -23974,13 +23974,13 @@
         <v>322.4677940726305</v>
       </c>
       <c r="D20" t="n">
-        <v>204.5359325407046</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E20" t="n">
-        <v>352.2387279966206</v>
+        <v>239.3297228151604</v>
       </c>
       <c r="F20" t="n">
-        <v>396.4306022709785</v>
+        <v>345.6296998782669</v>
       </c>
       <c r="G20" t="n">
         <v>423.7272913613554</v>
@@ -23989,13 +23989,13 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I20" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J20" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K20" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R20" t="n">
-        <v>176.0271760728542</v>
+        <v>63.11817089139393</v>
       </c>
       <c r="S20" t="n">
         <v>224.668424766055</v>
       </c>
       <c r="T20" t="n">
-        <v>101.3086901064264</v>
+        <v>214.2176952878866</v>
       </c>
       <c r="U20" t="n">
         <v>247.8209062752278</v>
@@ -24031,10 +24031,10 @@
         <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
-        <v>204.1032564574127</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X20" t="n">
-        <v>341.4686393609607</v>
+        <v>228.5596341795004</v>
       </c>
       <c r="Y20" t="n">
         <v>375.0096112764976</v>
@@ -24068,10 +24068,10 @@
         <v>142.2203432934013</v>
       </c>
       <c r="I21" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J21" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,28 +24092,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R21" t="n">
-        <v>31.6434217464672</v>
+        <v>144.5524269279274</v>
       </c>
       <c r="S21" t="n">
         <v>212.1459066321242</v>
       </c>
       <c r="T21" t="n">
-        <v>125.826576429133</v>
+        <v>139.2853298467631</v>
       </c>
       <c r="U21" t="n">
-        <v>145.0398297724497</v>
+        <v>257.9488349539099</v>
       </c>
       <c r="V21" t="n">
-        <v>193.6064805024451</v>
+        <v>142.1879847122179</v>
       </c>
       <c r="W21" t="n">
-        <v>294.3358934339082</v>
+        <v>181.4268882524479</v>
       </c>
       <c r="X21" t="n">
-        <v>238.5568750784579</v>
+        <v>125.6478698969976</v>
       </c>
       <c r="Y21" t="n">
         <v>255.9713047452624</v>
@@ -24153,22 +24153,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K22" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L22" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M22" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N22" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O22" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P22" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q22" t="n">
         <v>141.9725891611085</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>358.1696334656192</v>
+        <v>235.8604722188009</v>
       </c>
       <c r="C23" t="n">
-        <v>322.4677940726305</v>
+        <v>200.1586328258121</v>
       </c>
       <c r="D23" t="n">
         <v>306.6407632727974</v>
@@ -24226,13 +24226,13 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I23" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J23" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K23" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R23" t="n">
-        <v>83.50956451182003</v>
+        <v>53.71801482603584</v>
       </c>
       <c r="S23" t="n">
-        <v>102.3592635192368</v>
+        <v>224.668424766055</v>
       </c>
       <c r="T23" t="n">
         <v>214.2176952878866</v>
@@ -24265,10 +24265,10 @@
         <v>247.8209062752278</v>
       </c>
       <c r="V23" t="n">
-        <v>185.9190209137062</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W23" t="n">
-        <v>317.0122616388729</v>
+        <v>285.1987344825781</v>
       </c>
       <c r="X23" t="n">
         <v>341.4686393609607</v>
@@ -24299,16 +24299,16 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>46.5574083052513</v>
+        <v>168.8665695520695</v>
       </c>
       <c r="H24" t="n">
         <v>142.2203432934013</v>
       </c>
       <c r="I24" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J24" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R24" t="n">
         <v>144.5524269279274</v>
@@ -24338,22 +24338,22 @@
         <v>212.1459066321242</v>
       </c>
       <c r="T24" t="n">
-        <v>116.426420363775</v>
+        <v>238.7355816105932</v>
       </c>
       <c r="U24" t="n">
-        <v>257.9488349539099</v>
+        <v>135.6396737070916</v>
       </c>
       <c r="V24" t="n">
-        <v>132.7878286468599</v>
+        <v>132.7878286468598</v>
       </c>
       <c r="W24" t="n">
-        <v>294.3358934339082</v>
+        <v>186.6059842077106</v>
       </c>
       <c r="X24" t="n">
         <v>238.5568750784579</v>
       </c>
       <c r="Y24" t="n">
-        <v>186.2011378916621</v>
+        <v>133.6621434984441</v>
       </c>
     </row>
     <row r="25">
@@ -24390,22 +24390,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K25" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L25" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M25" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N25" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O25" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P25" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q25" t="n">
         <v>141.9725891611085</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>358.1696334656192</v>
+        <v>235.8604722188009</v>
       </c>
       <c r="C26" t="n">
         <v>322.4677940726305</v>
@@ -24463,13 +24463,13 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I26" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J26" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K26" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R26" t="n">
-        <v>53.71801482603598</v>
+        <v>53.71801482603584</v>
       </c>
       <c r="S26" t="n">
-        <v>132.1508132050208</v>
+        <v>192.8548976097602</v>
       </c>
       <c r="T26" t="n">
-        <v>214.2176952878866</v>
+        <v>91.90853404106826</v>
       </c>
       <c r="U26" t="n">
-        <v>125.5117450284096</v>
+        <v>247.8209062752278</v>
       </c>
       <c r="V26" t="n">
         <v>308.2281821605244</v>
@@ -24542,10 +24542,10 @@
         <v>142.2203432934013</v>
       </c>
       <c r="I27" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J27" t="n">
-        <v>65.84696289831604</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,31 +24566,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R27" t="n">
-        <v>144.5524269279274</v>
+        <v>22.24326568110905</v>
       </c>
       <c r="S27" t="n">
-        <v>142.3757397785238</v>
+        <v>212.1459066321242</v>
       </c>
       <c r="T27" t="n">
         <v>238.7355816105932</v>
       </c>
       <c r="U27" t="n">
-        <v>135.6396737070917</v>
+        <v>257.9488349539099</v>
       </c>
       <c r="V27" t="n">
-        <v>132.7878286468599</v>
+        <v>132.7878286468598</v>
       </c>
       <c r="W27" t="n">
-        <v>294.3358934339082</v>
+        <v>172.0267321870898</v>
       </c>
       <c r="X27" t="n">
         <v>238.5568750784579</v>
       </c>
       <c r="Y27" t="n">
-        <v>133.6621434984442</v>
+        <v>214.0883584173809</v>
       </c>
     </row>
     <row r="28">
@@ -24627,22 +24627,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K28" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L28" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M28" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N28" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O28" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P28" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q28" t="n">
         <v>141.9725891611085</v>
@@ -24700,13 +24700,13 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I29" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J29" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K29" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R29" t="n">
         <v>176.0271760728542</v>
       </c>
       <c r="S29" t="n">
-        <v>132.1508132050208</v>
+        <v>224.668424766055</v>
       </c>
       <c r="T29" t="n">
-        <v>91.90853404106838</v>
+        <v>91.90853404106826</v>
       </c>
       <c r="U29" t="n">
-        <v>247.8209062752278</v>
+        <v>125.5117450284095</v>
       </c>
       <c r="V29" t="n">
-        <v>185.9190209137062</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W29" t="n">
-        <v>317.0122616388729</v>
+        <v>194.7031003920546</v>
       </c>
       <c r="X29" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
-        <v>375.0096112764976</v>
+        <v>343.1960841202028</v>
       </c>
     </row>
     <row r="30">
@@ -24773,16 +24773,16 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>168.8665695520695</v>
+        <v>61.13666032587196</v>
       </c>
       <c r="H30" t="n">
         <v>142.2203432934013</v>
       </c>
       <c r="I30" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J30" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R30" t="n">
-        <v>22.24326568110916</v>
+        <v>144.5524269279274</v>
       </c>
       <c r="S30" t="n">
         <v>212.1459066321242</v>
@@ -24815,19 +24815,19 @@
         <v>238.7355816105932</v>
       </c>
       <c r="U30" t="n">
-        <v>257.9488349539099</v>
+        <v>135.6396737070916</v>
       </c>
       <c r="V30" t="n">
-        <v>132.7878286468599</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W30" t="n">
-        <v>172.0267321870899</v>
+        <v>172.0267321870898</v>
       </c>
       <c r="X30" t="n">
-        <v>130.8269658522604</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y30" t="n">
-        <v>255.9713047452624</v>
+        <v>133.6621434984441</v>
       </c>
     </row>
     <row r="31">
@@ -24864,22 +24864,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K31" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L31" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M31" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N31" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O31" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P31" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q31" t="n">
         <v>141.9725891611085</v>
@@ -24922,7 +24922,7 @@
         <v>322.4677940726305</v>
       </c>
       <c r="D32" t="n">
-        <v>214.1231517117632</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E32" t="n">
         <v>352.2387279966206</v>
@@ -24931,19 +24931,19 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G32" t="n">
-        <v>423.7272913613554</v>
+        <v>301.418130114537</v>
       </c>
       <c r="H32" t="n">
-        <v>344.3303727613725</v>
+        <v>222.0212115145542</v>
       </c>
       <c r="I32" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J32" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K32" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>29.791549685784</v>
       </c>
       <c r="R32" t="n">
         <v>176.0271760728542</v>
@@ -24979,13 +24979,13 @@
         <v>308.2281821605244</v>
       </c>
       <c r="W32" t="n">
-        <v>194.7031003920547</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X32" t="n">
-        <v>219.1594781141425</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
-        <v>375.0096112764976</v>
+        <v>252.7004500296792</v>
       </c>
     </row>
     <row r="33">
@@ -25001,25 +25001,25 @@
         <v>214.7813755111856</v>
       </c>
       <c r="D33" t="n">
-        <v>180.7611153144678</v>
+        <v>110.9909484608673</v>
       </c>
       <c r="E33" t="n">
         <v>197.9362491610792</v>
       </c>
       <c r="F33" t="n">
-        <v>184.1437201392488</v>
+        <v>61.83455889243044</v>
       </c>
       <c r="G33" t="n">
-        <v>46.5574083052513</v>
+        <v>168.8665695520695</v>
       </c>
       <c r="H33" t="n">
         <v>142.2203432934013</v>
       </c>
       <c r="I33" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J33" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>144.5524269279274</v>
       </c>
       <c r="S33" t="n">
-        <v>212.1459066321242</v>
+        <v>89.83674538530585</v>
       </c>
       <c r="T33" t="n">
         <v>238.7355816105932</v>
@@ -25055,13 +25055,13 @@
         <v>257.9488349539099</v>
       </c>
       <c r="V33" t="n">
-        <v>132.7878286468599</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W33" t="n">
-        <v>224.5657265803078</v>
+        <v>172.0267321870898</v>
       </c>
       <c r="X33" t="n">
-        <v>116.2477138316397</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y33" t="n">
         <v>255.9713047452624</v>
@@ -25101,22 +25101,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K34" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L34" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M34" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N34" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O34" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P34" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q34" t="n">
         <v>141.9725891611085</v>
@@ -25159,7 +25159,7 @@
         <v>322.4677940726305</v>
       </c>
       <c r="D35" t="n">
-        <v>255.8398608800859</v>
+        <v>193.7317580913372</v>
       </c>
       <c r="E35" t="n">
         <v>352.2387279966206</v>
@@ -25168,19 +25168,19 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G35" t="n">
-        <v>423.7272913613554</v>
+        <v>372.9263889686438</v>
       </c>
       <c r="H35" t="n">
         <v>344.3303727613725</v>
       </c>
       <c r="I35" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J35" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K35" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R35" t="n">
-        <v>176.0271760728542</v>
+        <v>63.11817089139393</v>
       </c>
       <c r="S35" t="n">
-        <v>224.668424766055</v>
+        <v>111.7594195845947</v>
       </c>
       <c r="T35" t="n">
         <v>214.2176952878866</v>
       </c>
       <c r="U35" t="n">
-        <v>134.9119010937676</v>
+        <v>247.8209062752278</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W35" t="n">
-        <v>204.1032564574127</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X35" t="n">
-        <v>228.5596341795005</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y35" t="n">
         <v>375.0096112764976</v>
@@ -25238,13 +25238,13 @@
         <v>214.7813755111856</v>
       </c>
       <c r="D36" t="n">
-        <v>180.7611153144678</v>
+        <v>67.85211013300753</v>
       </c>
       <c r="E36" t="n">
-        <v>197.9362491610792</v>
+        <v>98.48599739724904</v>
       </c>
       <c r="F36" t="n">
-        <v>184.1437201392488</v>
+        <v>71.23471495778853</v>
       </c>
       <c r="G36" t="n">
         <v>168.8665695520695</v>
@@ -25253,10 +25253,10 @@
         <v>142.2203432934013</v>
       </c>
       <c r="I36" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J36" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R36" t="n">
-        <v>31.6434217464672</v>
+        <v>144.5524269279274</v>
       </c>
       <c r="S36" t="n">
-        <v>99.23690145066399</v>
+        <v>212.1459066321242</v>
       </c>
       <c r="T36" t="n">
         <v>238.7355816105932</v>
       </c>
       <c r="U36" t="n">
-        <v>257.9488349539099</v>
+        <v>145.0398297724497</v>
       </c>
       <c r="V36" t="n">
         <v>255.0969898936781</v>
@@ -25298,10 +25298,10 @@
         <v>294.3358934339082</v>
       </c>
       <c r="X36" t="n">
-        <v>139.1066233146278</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y36" t="n">
-        <v>143.0622995638022</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="37">
@@ -25338,22 +25338,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K37" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L37" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M37" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N37" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O37" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P37" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q37" t="n">
         <v>141.9725891611085</v>
@@ -25393,10 +25393,10 @@
         <v>358.1696334656192</v>
       </c>
       <c r="C38" t="n">
-        <v>322.4677940726305</v>
+        <v>209.5587888911702</v>
       </c>
       <c r="D38" t="n">
-        <v>255.8398608800859</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E38" t="n">
         <v>352.2387279966206</v>
@@ -25411,13 +25411,13 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I38" t="n">
-        <v>121.882918576061</v>
+        <v>183.9910213648096</v>
       </c>
       <c r="J38" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K38" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R38" t="n">
-        <v>176.0271760728542</v>
+        <v>63.11817089139393</v>
       </c>
       <c r="S38" t="n">
         <v>224.668424766055</v>
       </c>
       <c r="T38" t="n">
-        <v>101.3086901064264</v>
+        <v>214.2176952878866</v>
       </c>
       <c r="U38" t="n">
-        <v>247.8209062752278</v>
+        <v>134.9119010937676</v>
       </c>
       <c r="V38" t="n">
-        <v>195.3191769790642</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W38" t="n">
         <v>317.0122616388729</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82.6506294564708</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C39" t="n">
         <v>214.7813755111856</v>
       </c>
       <c r="D39" t="n">
-        <v>67.85211013300759</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E39" t="n">
         <v>197.9362491610792</v>
@@ -25490,10 +25490,10 @@
         <v>142.2203432934013</v>
       </c>
       <c r="I39" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J39" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,25 +25514,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R39" t="n">
         <v>144.5524269279274</v>
       </c>
       <c r="S39" t="n">
-        <v>212.1459066321242</v>
+        <v>99.23690145066394</v>
       </c>
       <c r="T39" t="n">
-        <v>238.7355816105932</v>
+        <v>125.826576429133</v>
       </c>
       <c r="U39" t="n">
-        <v>145.0398297724497</v>
+        <v>158.4985831900798</v>
       </c>
       <c r="V39" t="n">
         <v>255.0969898936781</v>
       </c>
       <c r="W39" t="n">
-        <v>194.885641670078</v>
+        <v>181.4268882524479</v>
       </c>
       <c r="X39" t="n">
         <v>238.5568750784579</v>
@@ -25575,22 +25575,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K40" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L40" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M40" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N40" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O40" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P40" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q40" t="n">
         <v>141.9725891611085</v>
@@ -25630,10 +25630,10 @@
         <v>358.1696334656192</v>
       </c>
       <c r="C41" t="n">
-        <v>322.4677940726305</v>
+        <v>251.593948961645</v>
       </c>
       <c r="D41" t="n">
-        <v>306.6407632727974</v>
+        <v>213.0363769779249</v>
       </c>
       <c r="E41" t="n">
         <v>352.2387279966206</v>
@@ -25642,19 +25642,19 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>330.1229050664829</v>
+        <v>423.7272913613554</v>
       </c>
       <c r="H41" t="n">
         <v>344.3303727613725</v>
       </c>
       <c r="I41" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J41" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K41" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R41" t="n">
         <v>176.0271760728542</v>
@@ -25684,7 +25684,7 @@
         <v>214.2176952878866</v>
       </c>
       <c r="U41" t="n">
-        <v>176.9470611642425</v>
+        <v>154.2165199803553</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25693,7 +25693,7 @@
         <v>223.4078753440004</v>
       </c>
       <c r="X41" t="n">
-        <v>247.8642530660882</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y41" t="n">
         <v>375.0096112764976</v>
@@ -25709,16 +25709,16 @@
         <v>195.559634637931</v>
       </c>
       <c r="C42" t="n">
-        <v>214.7813755111856</v>
+        <v>132.3346320626619</v>
       </c>
       <c r="D42" t="n">
         <v>180.7611153144678</v>
       </c>
       <c r="E42" t="n">
-        <v>115.4895057125555</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F42" t="n">
-        <v>90.5393338443763</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
         <v>168.8665695520695</v>
@@ -25727,10 +25727,10 @@
         <v>142.2203432934013</v>
       </c>
       <c r="I42" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J42" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,16 +25751,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R42" t="n">
         <v>144.5524269279274</v>
       </c>
       <c r="S42" t="n">
-        <v>118.5415203372517</v>
+        <v>212.1459066321242</v>
       </c>
       <c r="T42" t="n">
-        <v>238.7355816105932</v>
+        <v>145.1311953157207</v>
       </c>
       <c r="U42" t="n">
         <v>257.9488349539099</v>
@@ -25769,13 +25769,13 @@
         <v>255.0969898936781</v>
       </c>
       <c r="W42" t="n">
-        <v>294.3358934339082</v>
+        <v>200.7315071390356</v>
       </c>
       <c r="X42" t="n">
         <v>238.5568750784579</v>
       </c>
       <c r="Y42" t="n">
-        <v>162.36691845039</v>
+        <v>162.3669184503899</v>
       </c>
     </row>
     <row r="43">
@@ -25812,22 +25812,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K43" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L43" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M43" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N43" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O43" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P43" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q43" t="n">
         <v>141.9725891611085</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>264.5652471707467</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C44" t="n">
         <v>322.4677940726305</v>
@@ -25876,22 +25876,22 @@
         <v>352.2387279966206</v>
       </c>
       <c r="F44" t="n">
-        <v>396.4306022709785</v>
+        <v>302.8262159761059</v>
       </c>
       <c r="G44" t="n">
-        <v>423.7272913613554</v>
+        <v>352.8534462503699</v>
       </c>
       <c r="H44" t="n">
         <v>344.3303727613725</v>
       </c>
       <c r="I44" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J44" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K44" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R44" t="n">
         <v>176.0271760728542</v>
@@ -25918,10 +25918,10 @@
         <v>224.668424766055</v>
       </c>
       <c r="T44" t="n">
-        <v>143.3438501769012</v>
+        <v>214.2176952878866</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8209062752278</v>
+        <v>154.2165199803553</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25933,7 +25933,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>281.4052249816251</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="45">
@@ -25946,10 +25946,10 @@
         <v>195.559634637931</v>
       </c>
       <c r="C45" t="n">
-        <v>132.3346320626619</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D45" t="n">
-        <v>87.1567290195953</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E45" t="n">
         <v>197.9362491610792</v>
@@ -25958,16 +25958,16 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>168.8665695520695</v>
+        <v>75.26218325719699</v>
       </c>
       <c r="H45" t="n">
         <v>142.2203432934013</v>
       </c>
       <c r="I45" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J45" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.95974237259708</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>144.5524269279274</v>
@@ -25997,10 +25997,10 @@
         <v>118.5415203372517</v>
       </c>
       <c r="T45" t="n">
-        <v>238.7355816105932</v>
+        <v>145.1311953157207</v>
       </c>
       <c r="U45" t="n">
-        <v>164.3444486590374</v>
+        <v>213.4618338779832</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26049,22 +26049,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K46" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L46" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M46" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N46" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O46" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P46" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q46" t="n">
         <v>141.9725891611085</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>402388.195593882</v>
+        <v>402388.1955938821</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>402388.195593882</v>
+        <v>402388.1955938821</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>404611.312133201</v>
+        <v>404611.3121332011</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>402388.1955938821</v>
+        <v>402388.1955938819</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>402388.1955938819</v>
+        <v>402388.1955938821</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>396354.2783948137</v>
+        <v>396354.2783948138</v>
       </c>
     </row>
     <row r="16">
@@ -26319,16 +26319,16 @@
         <v>772668.2099849477</v>
       </c>
       <c r="D2" t="n">
-        <v>772668.2099849479</v>
+        <v>772668.2099849476</v>
       </c>
       <c r="E2" t="n">
         <v>315050.8366728007</v>
       </c>
       <c r="F2" t="n">
-        <v>315050.8366728007</v>
+        <v>315050.8366728008</v>
       </c>
       <c r="G2" t="n">
-        <v>319847.0272669319</v>
+        <v>319847.0272669318</v>
       </c>
       <c r="H2" t="n">
         <v>319847.0272669318</v>
@@ -26340,10 +26340,10 @@
         <v>321614.1199007495</v>
       </c>
       <c r="K2" t="n">
-        <v>321614.1199007494</v>
+        <v>321614.1199007495</v>
       </c>
       <c r="L2" t="n">
-        <v>321614.1199007495</v>
+        <v>321614.1199007497</v>
       </c>
       <c r="M2" t="n">
         <v>319847.0272669318</v>
@@ -26352,10 +26352,10 @@
         <v>319847.0272669318</v>
       </c>
       <c r="O2" t="n">
-        <v>315050.8366728006</v>
+        <v>315050.8366728007</v>
       </c>
       <c r="P2" t="n">
-        <v>315050.8366728006</v>
+        <v>315050.8366728008</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2499.698901056073</v>
+        <v>2499.698901056088</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>20984.03099011576</v>
+        <v>20984.03099011593</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>66.41644532747972</v>
+        <v>66.41644532747965</v>
       </c>
       <c r="F4" t="n">
-        <v>66.41644532747961</v>
+        <v>66.41644532747965</v>
       </c>
       <c r="G4" t="n">
-        <v>75.88787634169064</v>
+        <v>75.88787634169068</v>
       </c>
       <c r="H4" t="n">
-        <v>75.88787634169063</v>
+        <v>75.88787634169068</v>
       </c>
       <c r="I4" t="n">
-        <v>79.37749912636565</v>
+        <v>79.37749912636571</v>
       </c>
       <c r="J4" t="n">
-        <v>79.37749912636565</v>
+        <v>79.37749912636572</v>
       </c>
       <c r="K4" t="n">
-        <v>79.37749912636565</v>
+        <v>79.37749912636571</v>
       </c>
       <c r="L4" t="n">
-        <v>79.37749912636565</v>
+        <v>79.37749912636571</v>
       </c>
       <c r="M4" t="n">
-        <v>75.88787634169063</v>
+        <v>75.88787634169068</v>
       </c>
       <c r="N4" t="n">
-        <v>75.88787634169063</v>
+        <v>75.88787634169068</v>
       </c>
       <c r="O4" t="n">
-        <v>66.41644532747961</v>
+        <v>66.41644532747965</v>
       </c>
       <c r="P4" t="n">
-        <v>66.41644532747961</v>
+        <v>66.41644532747965</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>20737.91648150279</v>
+        <v>20737.91648150278</v>
       </c>
       <c r="F5" t="n">
-        <v>20737.91648150277</v>
+        <v>20737.91648150278</v>
       </c>
       <c r="G5" t="n">
         <v>21911.63730980731</v>
@@ -26490,16 +26490,16 @@
         <v>21911.63730980731</v>
       </c>
       <c r="I5" t="n">
-        <v>22483.16679858107</v>
+        <v>22483.16679858108</v>
       </c>
       <c r="J5" t="n">
-        <v>22483.16679858107</v>
+        <v>22483.16679858108</v>
       </c>
       <c r="K5" t="n">
-        <v>22483.16679858107</v>
+        <v>22483.16679858108</v>
       </c>
       <c r="L5" t="n">
-        <v>22483.16679858107</v>
+        <v>22483.16679858108</v>
       </c>
       <c r="M5" t="n">
         <v>21911.63730980731</v>
@@ -26508,10 +26508,10 @@
         <v>21911.63730980731</v>
       </c>
       <c r="O5" t="n">
-        <v>20737.91648150277</v>
+        <v>20737.91648150278</v>
       </c>
       <c r="P5" t="n">
-        <v>20737.91648150277</v>
+        <v>20737.91648150278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169990.8363106115</v>
+        <v>169938.097250419</v>
       </c>
       <c r="C6" t="n">
-        <v>169990.8363106115</v>
+        <v>169938.097250419</v>
       </c>
       <c r="D6" t="n">
-        <v>169990.8363106117</v>
+        <v>169938.0972504189</v>
       </c>
       <c r="E6" t="n">
-        <v>-288225.5596148698</v>
+        <v>-303040.1494270671</v>
       </c>
       <c r="F6" t="n">
-        <v>294246.5037459704</v>
+        <v>279431.9139337734</v>
       </c>
       <c r="G6" t="n">
-        <v>292568.3956132525</v>
+        <v>277908.5216266724</v>
       </c>
       <c r="H6" t="n">
-        <v>297859.5020807828</v>
+        <v>283199.6280942027</v>
       </c>
       <c r="I6" t="n">
-        <v>296551.876701986</v>
+        <v>281949.0057035935</v>
       </c>
       <c r="J6" t="n">
-        <v>299051.5756030421</v>
+        <v>284448.7046046496</v>
       </c>
       <c r="K6" t="n">
-        <v>299051.5756030419</v>
+        <v>284448.7046046496</v>
       </c>
       <c r="L6" t="n">
-        <v>299051.5756030421</v>
+        <v>284448.7046046498</v>
       </c>
       <c r="M6" t="n">
-        <v>276875.471090667</v>
+        <v>262215.5971040868</v>
       </c>
       <c r="N6" t="n">
-        <v>297859.5020807828</v>
+        <v>283199.6280942027</v>
       </c>
       <c r="O6" t="n">
-        <v>294246.5037459704</v>
+        <v>279431.9139337732</v>
       </c>
       <c r="P6" t="n">
-        <v>294246.5037459704</v>
+        <v>279431.9139337733</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="F3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="G3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="H3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="I3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="J3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="K3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="L3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="M3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="N3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="O3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="P3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>93.60438629487273</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="F4" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="G4" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="H4" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="I4" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="J4" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="K4" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="L4" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="M4" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N4" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O4" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P4" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>93.60438629487273</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.400156065358033</v>
+        <v>9.40015606535809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.2042302295138</v>
+        <v>84.20423022951448</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>93.60438629487273</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H11" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I11" t="n">
         <v>106.9735083699313</v>
@@ -31764,19 +31764,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K11" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L11" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M11" t="n">
-        <v>467.9170152891909</v>
+        <v>467.9170152891907</v>
       </c>
       <c r="N11" t="n">
-        <v>466.400614639333</v>
+        <v>466.4006146393328</v>
       </c>
       <c r="O11" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P11" t="n">
         <v>399.0123654881417</v>
@@ -31788,13 +31788,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S11" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T11" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U11" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I12" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J12" t="n">
         <v>140.2641804350174</v>
@@ -31846,16 +31846,16 @@
         <v>239.7338253134039</v>
       </c>
       <c r="L12" t="n">
-        <v>233.4425790987982</v>
+        <v>318.7552534371681</v>
       </c>
       <c r="M12" t="n">
-        <v>324.5721914181525</v>
+        <v>239.2595170797821</v>
       </c>
       <c r="N12" t="n">
-        <v>307.0346684302893</v>
+        <v>307.0346684302892</v>
       </c>
       <c r="O12" t="n">
-        <v>325.3232835170949</v>
+        <v>325.3232835170948</v>
       </c>
       <c r="P12" t="n">
         <v>283.4976040007328</v>
@@ -31864,16 +31864,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R12" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S12" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T12" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,25 +31916,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I13" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J13" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K13" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L13" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M13" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N13" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O13" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P13" t="n">
         <v>150.5355883213116</v>
@@ -31943,16 +31943,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R13" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S13" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T13" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H14" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I14" t="n">
         <v>106.9735083699313</v>
@@ -32001,19 +32001,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K14" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L14" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M14" t="n">
         <v>467.9170152891907</v>
       </c>
       <c r="N14" t="n">
-        <v>466.4006146393327</v>
+        <v>466.4006146393328</v>
       </c>
       <c r="O14" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P14" t="n">
         <v>399.0123654881417</v>
@@ -32025,13 +32025,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S14" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T14" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U14" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I15" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J15" t="n">
         <v>140.2641804350174</v>
@@ -32086,31 +32086,31 @@
         <v>318.7552534371681</v>
       </c>
       <c r="M15" t="n">
-        <v>320.7901960122988</v>
+        <v>324.5721914181523</v>
       </c>
       <c r="N15" t="n">
-        <v>307.0346684302891</v>
+        <v>307.0346684302892</v>
       </c>
       <c r="O15" t="n">
-        <v>325.3232835170947</v>
+        <v>255.7520961587951</v>
       </c>
       <c r="P15" t="n">
-        <v>217.7084120482866</v>
+        <v>283.4976040007328</v>
       </c>
       <c r="Q15" t="n">
         <v>189.5106405171879</v>
       </c>
       <c r="R15" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S15" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T15" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,25 +32153,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I16" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J16" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K16" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L16" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M16" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N16" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O16" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P16" t="n">
         <v>150.5355883213116</v>
@@ -32180,16 +32180,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R16" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S16" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T16" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H17" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I17" t="n">
         <v>106.9735083699313</v>
@@ -32238,19 +32238,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K17" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L17" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M17" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N17" t="n">
-        <v>485.7052335259204</v>
+        <v>485.7052335259205</v>
       </c>
       <c r="O17" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P17" t="n">
         <v>399.0123654881417</v>
@@ -32262,13 +32262,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S17" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T17" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U17" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I18" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J18" t="n">
         <v>140.2641804350174</v>
@@ -32323,31 +32323,31 @@
         <v>322.35171312546</v>
       </c>
       <c r="M18" t="n">
-        <v>343.87681030474</v>
+        <v>273.4923105631874</v>
       </c>
       <c r="N18" t="n">
-        <v>321.7439795277704</v>
+        <v>326.3392873168769</v>
       </c>
       <c r="O18" t="n">
-        <v>344.6279024036824</v>
+        <v>344.6279024036825</v>
       </c>
       <c r="P18" t="n">
-        <v>217.7084120482866</v>
+        <v>283.4976040007328</v>
       </c>
       <c r="Q18" t="n">
         <v>189.5106405171879</v>
       </c>
       <c r="R18" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S18" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T18" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,25 +32390,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I19" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J19" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K19" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L19" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M19" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N19" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O19" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P19" t="n">
         <v>150.5355883213116</v>
@@ -32417,16 +32417,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R19" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S19" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T19" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H20" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I20" t="n">
         <v>106.9735083699313</v>
@@ -32475,19 +32475,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K20" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L20" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M20" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N20" t="n">
-        <v>485.7052335259204</v>
+        <v>485.7052335259205</v>
       </c>
       <c r="O20" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P20" t="n">
         <v>399.0123654881417</v>
@@ -32499,13 +32499,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S20" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T20" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U20" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I21" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J21" t="n">
         <v>140.2641804350174</v>
@@ -32566,7 +32566,7 @@
         <v>255.9547875753242</v>
       </c>
       <c r="O21" t="n">
-        <v>344.6279024036824</v>
+        <v>344.6279024036825</v>
       </c>
       <c r="P21" t="n">
         <v>283.4976040007328</v>
@@ -32575,16 +32575,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R21" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S21" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T21" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,25 +32627,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I22" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J22" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K22" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L22" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M22" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N22" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O22" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P22" t="n">
         <v>150.5355883213116</v>
@@ -32654,16 +32654,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R22" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S22" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T22" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H23" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I23" t="n">
         <v>106.9735083699313</v>
@@ -32712,19 +32712,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K23" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L23" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M23" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N23" t="n">
-        <v>495.1053895912785</v>
+        <v>495.1053895912786</v>
       </c>
       <c r="O23" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P23" t="n">
         <v>399.0123654881417</v>
@@ -32736,13 +32736,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S23" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T23" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U23" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I24" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J24" t="n">
         <v>140.2641804350174</v>
@@ -32797,13 +32797,13 @@
         <v>322.35171312546</v>
       </c>
       <c r="M24" t="n">
-        <v>353.276966370098</v>
+        <v>353.2769663700981</v>
       </c>
       <c r="N24" t="n">
-        <v>275.174116804129</v>
+        <v>275.1741168041291</v>
       </c>
       <c r="O24" t="n">
-        <v>353.2292370854828</v>
+        <v>353.2292370854829</v>
       </c>
       <c r="P24" t="n">
         <v>283.4976040007328</v>
@@ -32812,16 +32812,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R24" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S24" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T24" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,25 +32864,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I25" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J25" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K25" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L25" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M25" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N25" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O25" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P25" t="n">
         <v>150.5355883213116</v>
@@ -32891,16 +32891,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R25" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S25" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T25" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H26" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I26" t="n">
         <v>106.9735083699313</v>
@@ -32949,19 +32949,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L26" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M26" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N26" t="n">
-        <v>495.1053895912785</v>
+        <v>495.1053895912786</v>
       </c>
       <c r="O26" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P26" t="n">
         <v>399.0123654881417</v>
@@ -32973,13 +32973,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S26" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T26" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U26" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I27" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J27" t="n">
         <v>140.2641804350174</v>
@@ -33034,13 +33034,13 @@
         <v>322.35171312546</v>
       </c>
       <c r="M27" t="n">
-        <v>353.276966370098</v>
+        <v>292.7116397919922</v>
       </c>
       <c r="N27" t="n">
-        <v>275.174116804129</v>
+        <v>335.739443382235</v>
       </c>
       <c r="O27" t="n">
-        <v>353.2292370854828</v>
+        <v>353.2292370854829</v>
       </c>
       <c r="P27" t="n">
         <v>283.4976040007328</v>
@@ -33049,16 +33049,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R27" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S27" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T27" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,25 +33101,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I28" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J28" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K28" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L28" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M28" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N28" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O28" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P28" t="n">
         <v>150.5355883213116</v>
@@ -33128,16 +33128,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R28" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S28" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T28" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H29" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I29" t="n">
         <v>106.9735083699313</v>
@@ -33186,19 +33186,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K29" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L29" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M29" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N29" t="n">
-        <v>495.1053895912785</v>
+        <v>495.1053895912786</v>
       </c>
       <c r="O29" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P29" t="n">
         <v>399.0123654881417</v>
@@ -33210,13 +33210,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S29" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T29" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U29" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I30" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J30" t="n">
         <v>140.2641804350174</v>
       </c>
       <c r="K30" t="n">
-        <v>239.7338253134039</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>322.35171312546</v>
       </c>
       <c r="M30" t="n">
-        <v>292.7116397919921</v>
+        <v>308.4531267720628</v>
       </c>
       <c r="N30" t="n">
-        <v>335.7394433822349</v>
+        <v>335.739443382235</v>
       </c>
       <c r="O30" t="n">
-        <v>353.2292370854828</v>
+        <v>353.2292370854829</v>
       </c>
       <c r="P30" t="n">
         <v>283.4976040007328</v>
@@ -33286,16 +33286,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R30" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S30" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T30" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,25 +33338,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I31" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J31" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K31" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L31" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M31" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N31" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O31" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P31" t="n">
         <v>150.5355883213116</v>
@@ -33365,16 +33365,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R31" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S31" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T31" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H32" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I32" t="n">
         <v>106.9735083699313</v>
@@ -33423,19 +33423,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K32" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L32" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M32" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N32" t="n">
-        <v>495.1053895912785</v>
+        <v>495.1053895912786</v>
       </c>
       <c r="O32" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P32" t="n">
         <v>399.0123654881417</v>
@@ -33447,13 +33447,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S32" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T32" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U32" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I33" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J33" t="n">
         <v>140.2641804350174</v>
@@ -33508,13 +33508,13 @@
         <v>322.35171312546</v>
       </c>
       <c r="M33" t="n">
-        <v>292.7116397919921</v>
+        <v>353.2769663700981</v>
       </c>
       <c r="N33" t="n">
-        <v>335.7394433822349</v>
+        <v>275.1741168041291</v>
       </c>
       <c r="O33" t="n">
-        <v>353.2292370854828</v>
+        <v>353.2292370854829</v>
       </c>
       <c r="P33" t="n">
         <v>283.4976040007328</v>
@@ -33523,16 +33523,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R33" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S33" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T33" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,25 +33575,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I34" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J34" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K34" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L34" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M34" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N34" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O34" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P34" t="n">
         <v>150.5355883213116</v>
@@ -33602,16 +33602,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R34" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S34" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T34" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H35" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I35" t="n">
         <v>106.9735083699313</v>
@@ -33660,19 +33660,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K35" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L35" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M35" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N35" t="n">
-        <v>485.7052335259204</v>
+        <v>485.7052335259205</v>
       </c>
       <c r="O35" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P35" t="n">
         <v>399.0123654881417</v>
@@ -33684,13 +33684,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S35" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T35" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U35" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I36" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J36" t="n">
         <v>140.2641804350174</v>
@@ -33742,16 +33742,16 @@
         <v>239.7338253134039</v>
       </c>
       <c r="L36" t="n">
-        <v>251.9672133839074</v>
+        <v>322.35171312546</v>
       </c>
       <c r="M36" t="n">
         <v>343.87681030474</v>
       </c>
       <c r="N36" t="n">
-        <v>326.3392873168768</v>
+        <v>255.9547875753242</v>
       </c>
       <c r="O36" t="n">
-        <v>344.6279024036824</v>
+        <v>344.6279024036825</v>
       </c>
       <c r="P36" t="n">
         <v>283.4976040007328</v>
@@ -33760,16 +33760,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R36" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S36" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T36" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,25 +33812,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I37" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J37" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K37" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L37" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M37" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N37" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O37" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P37" t="n">
         <v>150.5355883213116</v>
@@ -33839,16 +33839,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R37" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S37" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T37" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H38" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I38" t="n">
         <v>106.9735083699313</v>
@@ -33897,19 +33897,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K38" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L38" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M38" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N38" t="n">
-        <v>485.7052335259204</v>
+        <v>485.7052335259205</v>
       </c>
       <c r="O38" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P38" t="n">
         <v>399.0123654881417</v>
@@ -33921,13 +33921,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S38" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T38" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U38" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I39" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J39" t="n">
         <v>140.2641804350174</v>
@@ -33985,7 +33985,7 @@
         <v>343.87681030474</v>
       </c>
       <c r="N39" t="n">
-        <v>326.3392873168768</v>
+        <v>326.3392873168769</v>
       </c>
       <c r="O39" t="n">
         <v>274.2434026621298</v>
@@ -33997,16 +33997,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R39" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S39" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T39" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,25 +34049,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I40" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J40" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K40" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L40" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M40" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N40" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O40" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P40" t="n">
         <v>150.5355883213116</v>
@@ -34076,16 +34076,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R40" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S40" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T40" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H41" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I41" t="n">
         <v>106.9735083699313</v>
@@ -34134,19 +34134,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K41" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L41" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M41" t="n">
         <v>467.9170152891907</v>
       </c>
       <c r="N41" t="n">
-        <v>466.4006146393327</v>
+        <v>466.4006146393328</v>
       </c>
       <c r="O41" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P41" t="n">
         <v>399.0123654881417</v>
@@ -34158,13 +34158,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S41" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T41" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U41" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,13 +34207,13 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I42" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J42" t="n">
         <v>140.2641804350174</v>
       </c>
       <c r="K42" t="n">
-        <v>223.9923383333334</v>
+        <v>239.7338253134039</v>
       </c>
       <c r="L42" t="n">
         <v>318.7552534371681</v>
@@ -34222,10 +34222,10 @@
         <v>324.5721914181523</v>
       </c>
       <c r="N42" t="n">
-        <v>307.0346684302891</v>
+        <v>221.721994091919</v>
       </c>
       <c r="O42" t="n">
-        <v>255.7520961587951</v>
+        <v>325.3232835170948</v>
       </c>
       <c r="P42" t="n">
         <v>283.4976040007328</v>
@@ -34234,16 +34234,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R42" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S42" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T42" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,25 +34286,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I43" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J43" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K43" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L43" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M43" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N43" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O43" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P43" t="n">
         <v>150.5355883213116</v>
@@ -34313,16 +34313,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R43" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S43" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T43" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H44" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I44" t="n">
         <v>106.9735083699313</v>
@@ -34371,19 +34371,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K44" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L44" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M44" t="n">
         <v>467.9170152891907</v>
       </c>
       <c r="N44" t="n">
-        <v>466.4006146393327</v>
+        <v>466.4006146393328</v>
       </c>
       <c r="O44" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P44" t="n">
         <v>399.0123654881417</v>
@@ -34395,13 +34395,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S44" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T44" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U44" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I45" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J45" t="n">
         <v>140.2641804350174</v>
@@ -34456,13 +34456,13 @@
         <v>318.7552534371681</v>
       </c>
       <c r="M45" t="n">
-        <v>239.2595170797822</v>
+        <v>239.2595170797821</v>
       </c>
       <c r="N45" t="n">
-        <v>307.0346684302891</v>
+        <v>307.0346684302892</v>
       </c>
       <c r="O45" t="n">
-        <v>325.3232835170947</v>
+        <v>325.3232835170948</v>
       </c>
       <c r="P45" t="n">
         <v>283.4976040007328</v>
@@ -34471,16 +34471,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R45" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S45" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T45" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,25 +34523,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I46" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J46" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K46" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L46" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M46" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N46" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O46" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P46" t="n">
         <v>150.5355883213116</v>
@@ -34550,16 +34550,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R46" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S46" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T46" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M11" t="n">
-        <v>93.60438629487273</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N11" t="n">
-        <v>93.60438629487273</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="O11" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P11" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L12" t="n">
-        <v>8.291711956502597</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="M12" t="n">
-        <v>93.60438629487273</v>
+        <v>8.291711956502352</v>
       </c>
       <c r="N12" t="n">
-        <v>93.60438629487273</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="O12" t="n">
-        <v>93.60438629487273</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P12" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M14" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="N14" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="O14" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P14" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="M15" t="n">
-        <v>89.82239088901902</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="N15" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487255</v>
       </c>
       <c r="O15" t="n">
-        <v>93.6043862948725</v>
+        <v>24.03319893657292</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M17" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N17" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O17" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P17" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L18" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M18" t="n">
-        <v>112.9090051814602</v>
+        <v>42.52450543990759</v>
       </c>
       <c r="N18" t="n">
-        <v>108.3136973923537</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O18" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M20" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N20" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O20" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P20" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L21" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M21" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N21" t="n">
-        <v>42.52450543990761</v>
+        <v>42.52450543990758</v>
       </c>
       <c r="O21" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="P21" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M23" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N23" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O23" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P23" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L24" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M24" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="N24" t="n">
-        <v>61.74383466871231</v>
+        <v>61.74383466871242</v>
       </c>
       <c r="O24" t="n">
         <v>121.5103398632606</v>
       </c>
       <c r="P24" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M26" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N26" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O26" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P26" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L27" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M27" t="n">
-        <v>122.3091612468182</v>
+        <v>61.74383466871244</v>
       </c>
       <c r="N27" t="n">
-        <v>61.74383466871231</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O27" t="n">
         <v>121.5103398632606</v>
       </c>
       <c r="P27" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M29" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N29" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O29" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P29" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>15.74148698007053</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M30" t="n">
-        <v>61.74383466871231</v>
+        <v>77.485321648783</v>
       </c>
       <c r="N30" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O30" t="n">
         <v>121.5103398632606</v>
       </c>
       <c r="P30" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M32" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N32" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O32" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P32" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L33" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M33" t="n">
-        <v>61.74383466871231</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="N33" t="n">
-        <v>122.3091612468182</v>
+        <v>61.74383466871242</v>
       </c>
       <c r="O33" t="n">
         <v>121.5103398632606</v>
       </c>
       <c r="P33" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M35" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N35" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O35" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P35" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L36" t="n">
-        <v>26.81634624161183</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M36" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N36" t="n">
-        <v>112.9090051814602</v>
+        <v>42.52450543990758</v>
       </c>
       <c r="O36" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="P36" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M38" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N38" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O38" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P38" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L39" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M39" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N39" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O39" t="n">
         <v>42.52450543990758</v>
       </c>
       <c r="P39" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M41" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N41" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="O41" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P41" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L42" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="M42" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N42" t="n">
-        <v>93.60438629487248</v>
+        <v>8.291711956502352</v>
       </c>
       <c r="O42" t="n">
-        <v>24.03319893657292</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P42" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M44" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N44" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="O44" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P44" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L45" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="M45" t="n">
-        <v>8.291711956502397</v>
+        <v>8.291711956502352</v>
       </c>
       <c r="N45" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="O45" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P45" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
